--- a/grupos/2APV - Estadisticos 2020.xlsx
+++ b/grupos/2APV - Estadisticos 2020.xlsx
@@ -2529,6 +2529,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3285,7 +3286,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3675,6 +3677,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/2APV - Estadisticos 2020.xlsx
+++ b/grupos/2APV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="108">
   <si>
     <t>Materia</t>
   </si>
@@ -176,24 +176,51 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>BALTAZARES</t>
+  </si>
+  <si>
     <t>BENITEZ</t>
   </si>
   <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
     <t>CLEMENTE</t>
   </si>
   <si>
+    <t>CORONA</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
     <t>DE LUNA</t>
   </si>
   <si>
     <t>LUNA</t>
   </si>
   <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
     <t>RAMOS</t>
   </si>
   <si>
@@ -203,9 +230,18 @@
     <t>TELLEZ</t>
   </si>
   <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
     <t>BAEZ</t>
   </si>
   <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>GARNICA</t>
   </si>
   <si>
@@ -215,10 +251,25 @@
     <t>ANDRADE</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
     <t>CORDOVA</t>
   </si>
   <si>
-    <t>FLORES</t>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
   </si>
   <si>
     <t>XOTLANIHUA</t>
@@ -230,24 +281,57 @@
     <t>OFICIAL</t>
   </si>
   <si>
+    <t>IVETTE</t>
+  </si>
+  <si>
     <t>ANA KAREN</t>
   </si>
   <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>IAN URIEL</t>
+  </si>
+  <si>
     <t>LEONARDO GAEL</t>
   </si>
   <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
     <t>JOSE LUIS</t>
   </si>
   <si>
     <t>VALERIA</t>
   </si>
   <si>
+    <t>JESUS HUMBERTO</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>ELIAS ALONSO</t>
+  </si>
+  <si>
+    <t>KARLA RENATA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL ONAM</t>
+  </si>
+  <si>
     <t>EUDY</t>
   </si>
   <si>
     <t>MIRANDA</t>
   </si>
   <si>
+    <t>DANIEL ELEAZAR</t>
+  </si>
+  <si>
+    <t>KAREN YAZMIN</t>
+  </si>
+  <si>
     <t>MARCO JOSAFAT</t>
   </si>
   <si>
@@ -255,90 +339,6 @@
   </si>
   <si>
     <t>MARISOL</t>
-  </si>
-  <si>
-    <t>BALTAZARES</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>IVETTE</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>IAN URIEL</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>JESUS HUMBERTO</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>ELIAS ALONSO</t>
-  </si>
-  <si>
-    <t>KARLA RENATA</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL ONAM</t>
-  </si>
-  <si>
-    <t>DANIEL ELEAZAR</t>
-  </si>
-  <si>
-    <t>KAREN YAZMIN</t>
   </si>
   <si>
     <t>ERNESTO</t>
@@ -2523,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2555,39 +2555,39 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920261</v>
+        <v>20330051920260</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920261</v>
+        <v>20330051920260</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2595,159 +2595,159 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920261</v>
+        <v>20330051920260</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920261</v>
+        <v>20330051920260</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920261</v>
+        <v>20330051920260</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920264</v>
+        <v>20330051920260</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920264</v>
+        <v>20330051920260</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920264</v>
+        <v>20330051920261</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920264</v>
+        <v>20330051920261</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920266</v>
+        <v>20330051920261</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>46</v>
@@ -2755,236 +2755,236 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920266</v>
+        <v>20330051920261</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920266</v>
+        <v>20330051920261</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920266</v>
+        <v>20330051920261</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920266</v>
+        <v>20330051920261</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920266</v>
+        <v>19330051920314</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920266</v>
+        <v>19330051920314</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920267</v>
+        <v>19330051920314</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920267</v>
+        <v>19330051920314</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920267</v>
+        <v>19330051920314</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920267</v>
+        <v>19330051920314</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920267</v>
+        <v>19330051920314</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920267</v>
+        <v>20330051920262</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -2995,119 +2995,119 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19220030050208</v>
+        <v>20330051920262</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19220030050208</v>
+        <v>20330051920262</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920273</v>
+        <v>20330051920262</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920273</v>
+        <v>20330051920262</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920273</v>
+        <v>20330051920262</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920273</v>
+        <v>20330051920262</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>46</v>
@@ -3115,96 +3115,96 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920273</v>
+        <v>20330051920264</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920273</v>
+        <v>20330051920264</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920278</v>
+        <v>20330051920264</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920279</v>
+        <v>20330051920264</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920279</v>
+        <v>20330051920264</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -3215,16 +3215,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920279</v>
+        <v>20330051920264</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -3235,42 +3235,2262 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920279</v>
+        <v>20330051920264</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
+        <v>20330051920265</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>20330051920265</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>20330051920265</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>20330051920265</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>20330051920265</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>20330051920265</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>20330051920265</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>20330051920266</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>20330051920266</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>20330051920266</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>20330051920266</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>20330051920266</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>20330051920266</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>20330051920266</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>20330051920267</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>20330051920267</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>20330051920267</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>20330051920267</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>20330051920267</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>20330051920267</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>20330051920267</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>20330051920268</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>20330051920268</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>20330051920268</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>20330051920268</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>20330051920268</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>20330051920268</v>
+      </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>20330051920268</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>20330051920269</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>20330051920269</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>20330051920269</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>20330051920269</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>20330051920269</v>
+      </c>
+      <c r="B69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>20330051920269</v>
+      </c>
+      <c r="B70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>20330051920269</v>
+      </c>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>20330051920270</v>
+      </c>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>20330051920270</v>
+      </c>
+      <c r="B73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>20330051920270</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>20330051920270</v>
+      </c>
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>20330051920270</v>
+      </c>
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>20330051920270</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>20330051920270</v>
+      </c>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>20330051920271</v>
+      </c>
+      <c r="B79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>20330051920271</v>
+      </c>
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>20330051920271</v>
+      </c>
+      <c r="B81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>20330051920271</v>
+      </c>
+      <c r="B82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>20330051920271</v>
+      </c>
+      <c r="B83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>20330051920271</v>
+      </c>
+      <c r="B84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>20330051920271</v>
+      </c>
+      <c r="B85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>20330051920272</v>
+      </c>
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>20330051920272</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>20330051920272</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>20330051920272</v>
+      </c>
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>99</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>20330051920272</v>
+      </c>
+      <c r="B90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>20330051920272</v>
+      </c>
+      <c r="B91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>20330051920272</v>
+      </c>
+      <c r="B92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>99</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>19220030050208</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" t="s">
+        <v>100</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>19220030050208</v>
+      </c>
+      <c r="B94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" t="s">
+        <v>100</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>19220030050208</v>
+      </c>
+      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>19220030050208</v>
+      </c>
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>19220030050208</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" t="s">
+        <v>100</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>19220030050208</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" t="s">
+        <v>100</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>19220030050208</v>
+      </c>
+      <c r="B99" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>20330051920273</v>
+      </c>
+      <c r="B100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>20330051920273</v>
+      </c>
+      <c r="B101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>20330051920273</v>
+      </c>
+      <c r="B102" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" t="s">
+        <v>77</v>
+      </c>
+      <c r="D102" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>20330051920273</v>
+      </c>
+      <c r="B103" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>20330051920273</v>
+      </c>
+      <c r="B104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D104" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>20330051920273</v>
+      </c>
+      <c r="B105" t="s">
+        <v>64</v>
+      </c>
+      <c r="C105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>20330051920273</v>
+      </c>
+      <c r="B106" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" t="s">
+        <v>77</v>
+      </c>
+      <c r="D106" t="s">
+        <v>101</v>
+      </c>
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>20330051920274</v>
+      </c>
+      <c r="B107" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>20330051920274</v>
+      </c>
+      <c r="B108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" t="s">
+        <v>82</v>
+      </c>
+      <c r="D108" t="s">
+        <v>102</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>20330051920274</v>
+      </c>
+      <c r="B109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" t="s">
+        <v>102</v>
+      </c>
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>20330051920274</v>
+      </c>
+      <c r="B110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>20330051920274</v>
+      </c>
+      <c r="B111" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D111" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>20330051920274</v>
+      </c>
+      <c r="B112" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112" t="s">
+        <v>102</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>20330051920274</v>
+      </c>
+      <c r="B113" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>20330051920276</v>
+      </c>
+      <c r="B114" t="s">
+        <v>66</v>
+      </c>
+      <c r="C114" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>20330051920276</v>
+      </c>
+      <c r="B115" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" t="s">
+        <v>83</v>
+      </c>
+      <c r="D115" t="s">
+        <v>103</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>20330051920276</v>
+      </c>
+      <c r="B116" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" t="s">
+        <v>83</v>
+      </c>
+      <c r="D116" t="s">
+        <v>103</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>20330051920276</v>
+      </c>
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" t="s">
+        <v>83</v>
+      </c>
+      <c r="D117" t="s">
+        <v>103</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>20330051920276</v>
+      </c>
+      <c r="B118" t="s">
+        <v>66</v>
+      </c>
+      <c r="C118" t="s">
+        <v>83</v>
+      </c>
+      <c r="D118" t="s">
+        <v>103</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>20330051920276</v>
+      </c>
+      <c r="B119" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" t="s">
+        <v>83</v>
+      </c>
+      <c r="D119" t="s">
+        <v>103</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>20330051920276</v>
+      </c>
+      <c r="B120" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" t="s">
+        <v>83</v>
+      </c>
+      <c r="D120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>20330051920278</v>
+      </c>
+      <c r="B121" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121" t="s">
+        <v>104</v>
+      </c>
+      <c r="E121" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>20330051920278</v>
+      </c>
+      <c r="B122" t="s">
+        <v>67</v>
+      </c>
+      <c r="C122" t="s">
+        <v>84</v>
+      </c>
+      <c r="D122" t="s">
+        <v>104</v>
+      </c>
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>20330051920278</v>
+      </c>
+      <c r="B123" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" t="s">
+        <v>84</v>
+      </c>
+      <c r="D123" t="s">
+        <v>104</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>20330051920278</v>
+      </c>
+      <c r="B124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" t="s">
+        <v>84</v>
+      </c>
+      <c r="D124" t="s">
+        <v>104</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>20330051920278</v>
+      </c>
+      <c r="B125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" t="s">
+        <v>84</v>
+      </c>
+      <c r="D125" t="s">
+        <v>104</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>20330051920278</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" t="s">
+        <v>84</v>
+      </c>
+      <c r="D126" t="s">
+        <v>104</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>20330051920278</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" t="s">
+        <v>84</v>
+      </c>
+      <c r="D127" t="s">
+        <v>104</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>20330051920279</v>
+      </c>
+      <c r="B128" t="s">
+        <v>68</v>
+      </c>
+      <c r="C128" t="s">
+        <v>85</v>
+      </c>
+      <c r="D128" t="s">
+        <v>105</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>20330051920279</v>
+      </c>
+      <c r="B129" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129" t="s">
+        <v>85</v>
+      </c>
+      <c r="D129" t="s">
+        <v>105</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>20330051920279</v>
+      </c>
+      <c r="B130" t="s">
+        <v>68</v>
+      </c>
+      <c r="C130" t="s">
+        <v>85</v>
+      </c>
+      <c r="D130" t="s">
+        <v>105</v>
+      </c>
+      <c r="E130" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>20330051920279</v>
+      </c>
+      <c r="B131" t="s">
+        <v>68</v>
+      </c>
+      <c r="C131" t="s">
+        <v>85</v>
+      </c>
+      <c r="D131" t="s">
+        <v>105</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>20330051920279</v>
+      </c>
+      <c r="B132" t="s">
+        <v>68</v>
+      </c>
+      <c r="C132" t="s">
+        <v>85</v>
+      </c>
+      <c r="D132" t="s">
+        <v>105</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>20330051920279</v>
+      </c>
+      <c r="B133" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133" t="s">
+        <v>85</v>
+      </c>
+      <c r="D133" t="s">
+        <v>105</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>20330051920279</v>
+      </c>
+      <c r="B134" t="s">
+        <v>68</v>
+      </c>
+      <c r="C134" t="s">
+        <v>85</v>
+      </c>
+      <c r="D134" t="s">
+        <v>105</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
         <v>20330051920281</v>
       </c>
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B135" t="s">
         <v>69</v>
       </c>
-      <c r="D37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C135" t="s">
+        <v>86</v>
+      </c>
+      <c r="D135" t="s">
+        <v>106</v>
+      </c>
+      <c r="E135" t="s">
         <v>9</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F135" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>20330051920281</v>
+      </c>
+      <c r="B136" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" t="s">
+        <v>86</v>
+      </c>
+      <c r="D136" t="s">
+        <v>106</v>
+      </c>
+      <c r="E136" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>20330051920281</v>
+      </c>
+      <c r="B137" t="s">
+        <v>69</v>
+      </c>
+      <c r="C137" t="s">
+        <v>86</v>
+      </c>
+      <c r="D137" t="s">
+        <v>106</v>
+      </c>
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>20330051920281</v>
+      </c>
+      <c r="B138" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138" t="s">
+        <v>86</v>
+      </c>
+      <c r="D138" t="s">
+        <v>106</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>20330051920281</v>
+      </c>
+      <c r="B139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" t="s">
+        <v>86</v>
+      </c>
+      <c r="D139" t="s">
+        <v>106</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>20330051920281</v>
+      </c>
+      <c r="B140" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140" t="s">
+        <v>86</v>
+      </c>
+      <c r="D140" t="s">
+        <v>106</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>20330051920281</v>
+      </c>
+      <c r="B141" t="s">
+        <v>69</v>
+      </c>
+      <c r="C141" t="s">
+        <v>86</v>
+      </c>
+      <c r="D141" t="s">
+        <v>106</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>20330051920282</v>
+      </c>
+      <c r="B142" t="s">
+        <v>70</v>
+      </c>
+      <c r="C142" t="s">
+        <v>67</v>
+      </c>
+      <c r="D142" t="s">
+        <v>107</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>20330051920282</v>
+      </c>
+      <c r="B143" t="s">
+        <v>70</v>
+      </c>
+      <c r="C143" t="s">
+        <v>67</v>
+      </c>
+      <c r="D143" t="s">
+        <v>107</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>20330051920282</v>
+      </c>
+      <c r="B144" t="s">
+        <v>70</v>
+      </c>
+      <c r="C144" t="s">
+        <v>67</v>
+      </c>
+      <c r="D144" t="s">
+        <v>107</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>20330051920282</v>
+      </c>
+      <c r="B145" t="s">
+        <v>70</v>
+      </c>
+      <c r="C145" t="s">
+        <v>67</v>
+      </c>
+      <c r="D145" t="s">
+        <v>107</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>20330051920282</v>
+      </c>
+      <c r="B146" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146" t="s">
+        <v>67</v>
+      </c>
+      <c r="D146" t="s">
+        <v>107</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>20330051920282</v>
+      </c>
+      <c r="B147" t="s">
+        <v>70</v>
+      </c>
+      <c r="C147" t="s">
+        <v>67</v>
+      </c>
+      <c r="D147" t="s">
+        <v>107</v>
+      </c>
+      <c r="E147" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>20330051920282</v>
+      </c>
+      <c r="B148" t="s">
+        <v>70</v>
+      </c>
+      <c r="C148" t="s">
+        <v>67</v>
+      </c>
+      <c r="D148" t="s">
+        <v>107</v>
+      </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F148" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3312,13 +5532,13 @@
         <v>20330051920266</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -3329,13 +5549,13 @@
         <v>20330051920267</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -3346,13 +5566,13 @@
         <v>20330051920273</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -3363,13 +5583,13 @@
         <v>20330051920261</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -3380,13 +5600,13 @@
         <v>20330051920264</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -3397,13 +5617,13 @@
         <v>20330051920279</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -3414,13 +5634,13 @@
         <v>19220030050208</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3431,13 +5651,13 @@
         <v>20330051920278</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3448,13 +5668,13 @@
         <v>20330051920281</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3465,13 +5685,13 @@
         <v>20330051920260</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3482,13 +5702,13 @@
         <v>19330051920314</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3499,13 +5719,13 @@
         <v>20330051920262</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3516,13 +5736,13 @@
         <v>20330051920265</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3533,13 +5753,13 @@
         <v>20330051920268</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3550,13 +5770,13 @@
         <v>20330051920269</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3567,13 +5787,13 @@
         <v>20330051920270</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3584,13 +5804,13 @@
         <v>20330051920271</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3601,13 +5821,13 @@
         <v>20330051920272</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3618,13 +5838,13 @@
         <v>20330051920274</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3635,13 +5855,13 @@
         <v>20330051920276</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3652,10 +5872,10 @@
         <v>20330051920282</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
@@ -3671,7 +5891,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3704,98 +5924,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19220030050208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19220030050208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920278</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920281</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/2APV - Estadisticos 2020.xlsx
+++ b/grupos/2APV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="108">
   <si>
     <t>Materia</t>
   </si>
@@ -146,22 +146,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Santiago Hernández Mariana</t>
+  </si>
+  <si>
     <t>Medina Tolentino Francisco</t>
   </si>
   <si>
+    <t>Contreras Díaz Irma Ivette</t>
+  </si>
+  <si>
     <t>De Jesús Orduña Sofía del Pilar</t>
   </si>
   <si>
     <t>Villanueva Morales Luis Arturo</t>
   </si>
   <si>
-    <t>Santiago Hernández Mariana</t>
-  </si>
-  <si>
     <t>Acevedo Rendón Ismael Arturo</t>
-  </si>
-  <si>
-    <t>Contreras Díaz Irma Ivette</t>
   </si>
   <si>
     <t>NC</t>
@@ -837,25 +837,25 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -923,7 +923,7 @@
         <v>-1</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -973,25 +973,25 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -1041,25 +1041,25 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -1109,13 +1109,13 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>-1</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L8">
         <v>-1</v>
@@ -1127,7 +1127,7 @@
         <v>-1</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1177,25 +1177,25 @@
         <v>8</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>-1</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1245,25 +1245,25 @@
         <v>6</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>-1</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -1310,7 +1310,7 @@
         <v>-1</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>-1</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1399,7 +1399,7 @@
         <v>-1</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1449,25 +1449,25 @@
         <v>7</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>-1</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1517,25 +1517,25 @@
         <v>8</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1585,25 +1585,25 @@
         <v>8</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -1653,25 +1653,25 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L16">
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -1721,25 +1721,25 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -1780,10 +1780,10 @@
         <v>-1</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -1801,13 +1801,13 @@
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -1857,25 +1857,25 @@
         <v>7</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L19">
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>-1</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -1925,25 +1925,25 @@
         <v>8</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -1993,25 +1993,25 @@
         <v>7</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>-1</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -2043,7 +2043,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -2058,28 +2058,28 @@
         <v>-1</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L22">
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>-1</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2129,25 +2129,25 @@
         <v>6</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N23">
         <v>-1</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -2197,25 +2197,25 @@
         <v>6</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>-1</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -2303,30 +2303,27 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>61.9</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
+        <v>76.19</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J2">
-        <v>38.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -2335,30 +2332,30 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>66.67</v>
+        <v>42.86</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>23.81</v>
       </c>
       <c r="H3">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>33.33</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -2367,30 +2364,30 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>66.67</v>
+      </c>
+      <c r="G4">
+        <v>33.33</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="G4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7.7</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>28.57</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -2411,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -2422,7 +2419,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -2443,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9.1</v>
+        <v>7.8</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -2454,10 +2451,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -2475,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9.1</v>
+        <v>7.6</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -2486,7 +2483,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -2495,25 +2492,25 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>85.70999999999999</v>
+        <v>80.95</v>
       </c>
       <c r="G8">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>9.52</v>
+        <v>19.05</v>
       </c>
     </row>
   </sheetData>
@@ -2523,7 +2520,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2567,27 +2564,27 @@
         <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2595,19 +2592,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -2615,39 +2612,39 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -2655,19 +2652,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -2675,139 +2672,139 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920261</v>
+        <v>19330051920314</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920261</v>
+        <v>20330051920262</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
         <v>42</v>
@@ -2815,39 +2812,39 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920261</v>
+        <v>20330051920265</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920314</v>
+        <v>20330051920265</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
@@ -2855,159 +2852,159 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920314</v>
+        <v>20330051920266</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920314</v>
+        <v>20330051920266</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920314</v>
+        <v>20330051920266</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920314</v>
+        <v>20330051920266</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920314</v>
+        <v>20330051920266</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920314</v>
+        <v>20330051920266</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920262</v>
+        <v>20330051920267</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920262</v>
+        <v>20330051920267</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
         <v>47</v>
@@ -3015,179 +3012,179 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920262</v>
+        <v>20330051920267</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920262</v>
+        <v>20330051920267</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920262</v>
+        <v>20330051920267</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920262</v>
+        <v>20330051920267</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920262</v>
+        <v>20330051920268</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920264</v>
+        <v>20330051920268</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920264</v>
+        <v>20330051920269</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920264</v>
+        <v>20330051920270</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920264</v>
+        <v>20330051920271</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
@@ -3195,79 +3192,79 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920264</v>
+        <v>20330051920272</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920264</v>
+        <v>19220030050208</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920264</v>
+        <v>19220030050208</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920265</v>
+        <v>20330051920273</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>47</v>
@@ -3275,19 +3272,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920265</v>
+        <v>20330051920273</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
         <v>45</v>
@@ -3295,2202 +3292,262 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920265</v>
+        <v>20330051920273</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920265</v>
+        <v>20330051920273</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920265</v>
+        <v>20330051920274</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920265</v>
+        <v>20330051920274</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920265</v>
+        <v>20330051920276</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920266</v>
+        <v>20330051920278</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920266</v>
+        <v>20330051920278</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920266</v>
+        <v>20330051920279</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920266</v>
+        <v>20330051920279</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920266</v>
+        <v>20330051920281</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920266</v>
+        <v>20330051920281</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920266</v>
+        <v>20330051920282</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920267</v>
+        <v>20330051920282</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>20330051920267</v>
-      </c>
-      <c r="B52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>20330051920267</v>
-      </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>20330051920267</v>
-      </c>
-      <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>20330051920267</v>
-      </c>
-      <c r="B55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>20330051920267</v>
-      </c>
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>20330051920267</v>
-      </c>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>20330051920268</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>20330051920268</v>
-      </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>20330051920268</v>
-      </c>
-      <c r="B60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>20330051920268</v>
-      </c>
-      <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>20330051920268</v>
-      </c>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>20330051920268</v>
-      </c>
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" t="s">
-        <v>77</v>
-      </c>
-      <c r="D63" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>20330051920268</v>
-      </c>
-      <c r="B64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>20330051920269</v>
-      </c>
-      <c r="B65" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>20330051920269</v>
-      </c>
-      <c r="B66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>20330051920269</v>
-      </c>
-      <c r="B67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>20330051920269</v>
-      </c>
-      <c r="B68" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" t="s">
-        <v>96</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>20330051920269</v>
-      </c>
-      <c r="B69" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>20330051920269</v>
-      </c>
-      <c r="B70" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" t="s">
-        <v>96</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>20330051920269</v>
-      </c>
-      <c r="B71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>20330051920270</v>
-      </c>
-      <c r="B72" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>20330051920270</v>
-      </c>
-      <c r="B73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" t="s">
-        <v>97</v>
-      </c>
-      <c r="E73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>20330051920270</v>
-      </c>
-      <c r="B74" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" t="s">
-        <v>97</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>20330051920270</v>
-      </c>
-      <c r="B75" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920270</v>
-      </c>
-      <c r="B76" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" t="s">
-        <v>97</v>
-      </c>
-      <c r="E76" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920270</v>
-      </c>
-      <c r="B77" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" t="s">
-        <v>97</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920270</v>
-      </c>
-      <c r="B78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" t="s">
-        <v>97</v>
-      </c>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920271</v>
-      </c>
-      <c r="B79" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" t="s">
-        <v>98</v>
-      </c>
-      <c r="E79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920271</v>
-      </c>
-      <c r="B80" t="s">
-        <v>62</v>
-      </c>
-      <c r="C80" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920271</v>
-      </c>
-      <c r="B81" t="s">
-        <v>62</v>
-      </c>
-      <c r="C81" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" t="s">
-        <v>98</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920271</v>
-      </c>
-      <c r="B82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C82" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920271</v>
-      </c>
-      <c r="B83" t="s">
-        <v>62</v>
-      </c>
-      <c r="C83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" t="s">
-        <v>98</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920271</v>
-      </c>
-      <c r="B84" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" t="s">
-        <v>80</v>
-      </c>
-      <c r="D84" t="s">
-        <v>98</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920271</v>
-      </c>
-      <c r="B85" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" t="s">
-        <v>98</v>
-      </c>
-      <c r="E85" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920272</v>
-      </c>
-      <c r="B86" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" t="s">
-        <v>99</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920272</v>
-      </c>
-      <c r="B87" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87" t="s">
-        <v>99</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920272</v>
-      </c>
-      <c r="B88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" t="s">
-        <v>68</v>
-      </c>
-      <c r="D88" t="s">
-        <v>99</v>
-      </c>
-      <c r="E88" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920272</v>
-      </c>
-      <c r="B89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" t="s">
-        <v>68</v>
-      </c>
-      <c r="D89" t="s">
-        <v>99</v>
-      </c>
-      <c r="E89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920272</v>
-      </c>
-      <c r="B90" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" t="s">
-        <v>68</v>
-      </c>
-      <c r="D90" t="s">
-        <v>99</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920272</v>
-      </c>
-      <c r="B91" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" t="s">
-        <v>99</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920272</v>
-      </c>
-      <c r="B92" t="s">
-        <v>62</v>
-      </c>
-      <c r="C92" t="s">
-        <v>68</v>
-      </c>
-      <c r="D92" t="s">
-        <v>99</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19220030050208</v>
-      </c>
-      <c r="B93" t="s">
-        <v>63</v>
-      </c>
-      <c r="C93" t="s">
-        <v>81</v>
-      </c>
-      <c r="D93" t="s">
-        <v>100</v>
-      </c>
-      <c r="E93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19220030050208</v>
-      </c>
-      <c r="B94" t="s">
-        <v>63</v>
-      </c>
-      <c r="C94" t="s">
-        <v>81</v>
-      </c>
-      <c r="D94" t="s">
-        <v>100</v>
-      </c>
-      <c r="E94" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19220030050208</v>
-      </c>
-      <c r="B95" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" t="s">
-        <v>81</v>
-      </c>
-      <c r="D95" t="s">
-        <v>100</v>
-      </c>
-      <c r="E95" t="s">
-        <v>5</v>
-      </c>
-      <c r="F95" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19220030050208</v>
-      </c>
-      <c r="B96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" t="s">
-        <v>81</v>
-      </c>
-      <c r="D96" t="s">
-        <v>100</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19220030050208</v>
-      </c>
-      <c r="B97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" t="s">
-        <v>81</v>
-      </c>
-      <c r="D97" t="s">
-        <v>100</v>
-      </c>
-      <c r="E97" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19220030050208</v>
-      </c>
-      <c r="B98" t="s">
-        <v>63</v>
-      </c>
-      <c r="C98" t="s">
-        <v>81</v>
-      </c>
-      <c r="D98" t="s">
-        <v>100</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19220030050208</v>
-      </c>
-      <c r="B99" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" t="s">
-        <v>81</v>
-      </c>
-      <c r="D99" t="s">
-        <v>100</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920273</v>
-      </c>
-      <c r="B100" t="s">
-        <v>64</v>
-      </c>
-      <c r="C100" t="s">
-        <v>77</v>
-      </c>
-      <c r="D100" t="s">
-        <v>101</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920273</v>
-      </c>
-      <c r="B101" t="s">
-        <v>64</v>
-      </c>
-      <c r="C101" t="s">
-        <v>77</v>
-      </c>
-      <c r="D101" t="s">
-        <v>101</v>
-      </c>
-      <c r="E101" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920273</v>
-      </c>
-      <c r="B102" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D102" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920273</v>
-      </c>
-      <c r="B103" t="s">
-        <v>64</v>
-      </c>
-      <c r="C103" t="s">
-        <v>77</v>
-      </c>
-      <c r="D103" t="s">
-        <v>101</v>
-      </c>
-      <c r="E103" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920273</v>
-      </c>
-      <c r="B104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" t="s">
-        <v>77</v>
-      </c>
-      <c r="D104" t="s">
-        <v>101</v>
-      </c>
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920273</v>
-      </c>
-      <c r="B105" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105" t="s">
-        <v>77</v>
-      </c>
-      <c r="D105" t="s">
-        <v>101</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920273</v>
-      </c>
-      <c r="B106" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" t="s">
-        <v>77</v>
-      </c>
-      <c r="D106" t="s">
-        <v>101</v>
-      </c>
-      <c r="E106" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920274</v>
-      </c>
-      <c r="B107" t="s">
-        <v>65</v>
-      </c>
-      <c r="C107" t="s">
-        <v>82</v>
-      </c>
-      <c r="D107" t="s">
-        <v>102</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920274</v>
-      </c>
-      <c r="B108" t="s">
-        <v>65</v>
-      </c>
-      <c r="C108" t="s">
-        <v>82</v>
-      </c>
-      <c r="D108" t="s">
-        <v>102</v>
-      </c>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920274</v>
-      </c>
-      <c r="B109" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" t="s">
-        <v>82</v>
-      </c>
-      <c r="D109" t="s">
-        <v>102</v>
-      </c>
-      <c r="E109" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920274</v>
-      </c>
-      <c r="B110" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110" t="s">
-        <v>82</v>
-      </c>
-      <c r="D110" t="s">
-        <v>102</v>
-      </c>
-      <c r="E110" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920274</v>
-      </c>
-      <c r="B111" t="s">
-        <v>65</v>
-      </c>
-      <c r="C111" t="s">
-        <v>82</v>
-      </c>
-      <c r="D111" t="s">
-        <v>102</v>
-      </c>
-      <c r="E111" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920274</v>
-      </c>
-      <c r="B112" t="s">
-        <v>65</v>
-      </c>
-      <c r="C112" t="s">
-        <v>82</v>
-      </c>
-      <c r="D112" t="s">
-        <v>102</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920274</v>
-      </c>
-      <c r="B113" t="s">
-        <v>65</v>
-      </c>
-      <c r="C113" t="s">
-        <v>82</v>
-      </c>
-      <c r="D113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920276</v>
-      </c>
-      <c r="B114" t="s">
-        <v>66</v>
-      </c>
-      <c r="C114" t="s">
-        <v>83</v>
-      </c>
-      <c r="D114" t="s">
-        <v>103</v>
-      </c>
-      <c r="E114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920276</v>
-      </c>
-      <c r="B115" t="s">
-        <v>66</v>
-      </c>
-      <c r="C115" t="s">
-        <v>83</v>
-      </c>
-      <c r="D115" t="s">
-        <v>103</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920276</v>
-      </c>
-      <c r="B116" t="s">
-        <v>66</v>
-      </c>
-      <c r="C116" t="s">
-        <v>83</v>
-      </c>
-      <c r="D116" t="s">
-        <v>103</v>
-      </c>
-      <c r="E116" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920276</v>
-      </c>
-      <c r="B117" t="s">
-        <v>66</v>
-      </c>
-      <c r="C117" t="s">
-        <v>83</v>
-      </c>
-      <c r="D117" t="s">
-        <v>103</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920276</v>
-      </c>
-      <c r="B118" t="s">
-        <v>66</v>
-      </c>
-      <c r="C118" t="s">
-        <v>83</v>
-      </c>
-      <c r="D118" t="s">
-        <v>103</v>
-      </c>
-      <c r="E118" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920276</v>
-      </c>
-      <c r="B119" t="s">
-        <v>66</v>
-      </c>
-      <c r="C119" t="s">
-        <v>83</v>
-      </c>
-      <c r="D119" t="s">
-        <v>103</v>
-      </c>
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920276</v>
-      </c>
-      <c r="B120" t="s">
-        <v>66</v>
-      </c>
-      <c r="C120" t="s">
-        <v>83</v>
-      </c>
-      <c r="D120" t="s">
-        <v>103</v>
-      </c>
-      <c r="E120" t="s">
-        <v>5</v>
-      </c>
-      <c r="F120" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920278</v>
-      </c>
-      <c r="B121" t="s">
-        <v>67</v>
-      </c>
-      <c r="C121" t="s">
-        <v>84</v>
-      </c>
-      <c r="D121" t="s">
-        <v>104</v>
-      </c>
-      <c r="E121" t="s">
-        <v>4</v>
-      </c>
-      <c r="F121" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920278</v>
-      </c>
-      <c r="B122" t="s">
-        <v>67</v>
-      </c>
-      <c r="C122" t="s">
-        <v>84</v>
-      </c>
-      <c r="D122" t="s">
-        <v>104</v>
-      </c>
-      <c r="E122" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920278</v>
-      </c>
-      <c r="B123" t="s">
-        <v>67</v>
-      </c>
-      <c r="C123" t="s">
-        <v>84</v>
-      </c>
-      <c r="D123" t="s">
-        <v>104</v>
-      </c>
-      <c r="E123" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920278</v>
-      </c>
-      <c r="B124" t="s">
-        <v>67</v>
-      </c>
-      <c r="C124" t="s">
-        <v>84</v>
-      </c>
-      <c r="D124" t="s">
-        <v>104</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920278</v>
-      </c>
-      <c r="B125" t="s">
-        <v>67</v>
-      </c>
-      <c r="C125" t="s">
-        <v>84</v>
-      </c>
-      <c r="D125" t="s">
-        <v>104</v>
-      </c>
-      <c r="E125" t="s">
-        <v>5</v>
-      </c>
-      <c r="F125" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920278</v>
-      </c>
-      <c r="B126" t="s">
-        <v>67</v>
-      </c>
-      <c r="C126" t="s">
-        <v>84</v>
-      </c>
-      <c r="D126" t="s">
-        <v>104</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920278</v>
-      </c>
-      <c r="B127" t="s">
-        <v>67</v>
-      </c>
-      <c r="C127" t="s">
-        <v>84</v>
-      </c>
-      <c r="D127" t="s">
-        <v>104</v>
-      </c>
-      <c r="E127" t="s">
-        <v>7</v>
-      </c>
-      <c r="F127" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>20330051920279</v>
-      </c>
-      <c r="B128" t="s">
-        <v>68</v>
-      </c>
-      <c r="C128" t="s">
-        <v>85</v>
-      </c>
-      <c r="D128" t="s">
-        <v>105</v>
-      </c>
-      <c r="E128" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>20330051920279</v>
-      </c>
-      <c r="B129" t="s">
-        <v>68</v>
-      </c>
-      <c r="C129" t="s">
-        <v>85</v>
-      </c>
-      <c r="D129" t="s">
-        <v>105</v>
-      </c>
-      <c r="E129" t="s">
-        <v>4</v>
-      </c>
-      <c r="F129" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>20330051920279</v>
-      </c>
-      <c r="B130" t="s">
-        <v>68</v>
-      </c>
-      <c r="C130" t="s">
-        <v>85</v>
-      </c>
-      <c r="D130" t="s">
-        <v>105</v>
-      </c>
-      <c r="E130" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>20330051920279</v>
-      </c>
-      <c r="B131" t="s">
-        <v>68</v>
-      </c>
-      <c r="C131" t="s">
-        <v>85</v>
-      </c>
-      <c r="D131" t="s">
-        <v>105</v>
-      </c>
-      <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>20330051920279</v>
-      </c>
-      <c r="B132" t="s">
-        <v>68</v>
-      </c>
-      <c r="C132" t="s">
-        <v>85</v>
-      </c>
-      <c r="D132" t="s">
-        <v>105</v>
-      </c>
-      <c r="E132" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>20330051920279</v>
-      </c>
-      <c r="B133" t="s">
-        <v>68</v>
-      </c>
-      <c r="C133" t="s">
-        <v>85</v>
-      </c>
-      <c r="D133" t="s">
-        <v>105</v>
-      </c>
-      <c r="E133" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>20330051920279</v>
-      </c>
-      <c r="B134" t="s">
-        <v>68</v>
-      </c>
-      <c r="C134" t="s">
-        <v>85</v>
-      </c>
-      <c r="D134" t="s">
-        <v>105</v>
-      </c>
-      <c r="E134" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>20330051920281</v>
-      </c>
-      <c r="B135" t="s">
-        <v>69</v>
-      </c>
-      <c r="C135" t="s">
-        <v>86</v>
-      </c>
-      <c r="D135" t="s">
-        <v>106</v>
-      </c>
-      <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>20330051920281</v>
-      </c>
-      <c r="B136" t="s">
-        <v>69</v>
-      </c>
-      <c r="C136" t="s">
-        <v>86</v>
-      </c>
-      <c r="D136" t="s">
-        <v>106</v>
-      </c>
-      <c r="E136" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>20330051920281</v>
-      </c>
-      <c r="B137" t="s">
-        <v>69</v>
-      </c>
-      <c r="C137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D137" t="s">
-        <v>106</v>
-      </c>
-      <c r="E137" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>20330051920281</v>
-      </c>
-      <c r="B138" t="s">
-        <v>69</v>
-      </c>
-      <c r="C138" t="s">
-        <v>86</v>
-      </c>
-      <c r="D138" t="s">
-        <v>106</v>
-      </c>
-      <c r="E138" t="s">
-        <v>7</v>
-      </c>
-      <c r="F138" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>20330051920281</v>
-      </c>
-      <c r="B139" t="s">
-        <v>69</v>
-      </c>
-      <c r="C139" t="s">
-        <v>86</v>
-      </c>
-      <c r="D139" t="s">
-        <v>106</v>
-      </c>
-      <c r="E139" t="s">
-        <v>4</v>
-      </c>
-      <c r="F139" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>20330051920281</v>
-      </c>
-      <c r="B140" t="s">
-        <v>69</v>
-      </c>
-      <c r="C140" t="s">
-        <v>86</v>
-      </c>
-      <c r="D140" t="s">
-        <v>106</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>20330051920281</v>
-      </c>
-      <c r="B141" t="s">
-        <v>69</v>
-      </c>
-      <c r="C141" t="s">
-        <v>86</v>
-      </c>
-      <c r="D141" t="s">
-        <v>106</v>
-      </c>
-      <c r="E141" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>20330051920282</v>
-      </c>
-      <c r="B142" t="s">
-        <v>70</v>
-      </c>
-      <c r="C142" t="s">
-        <v>67</v>
-      </c>
-      <c r="D142" t="s">
-        <v>107</v>
-      </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>20330051920282</v>
-      </c>
-      <c r="B143" t="s">
-        <v>70</v>
-      </c>
-      <c r="C143" t="s">
-        <v>67</v>
-      </c>
-      <c r="D143" t="s">
-        <v>107</v>
-      </c>
-      <c r="E143" t="s">
-        <v>8</v>
-      </c>
-      <c r="F143" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>20330051920282</v>
-      </c>
-      <c r="B144" t="s">
-        <v>70</v>
-      </c>
-      <c r="C144" t="s">
-        <v>67</v>
-      </c>
-      <c r="D144" t="s">
-        <v>107</v>
-      </c>
-      <c r="E144" t="s">
-        <v>4</v>
-      </c>
-      <c r="F144" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>20330051920282</v>
-      </c>
-      <c r="B145" t="s">
-        <v>70</v>
-      </c>
-      <c r="C145" t="s">
-        <v>67</v>
-      </c>
-      <c r="D145" t="s">
-        <v>107</v>
-      </c>
-      <c r="E145" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>20330051920282</v>
-      </c>
-      <c r="B146" t="s">
-        <v>70</v>
-      </c>
-      <c r="C146" t="s">
-        <v>67</v>
-      </c>
-      <c r="D146" t="s">
-        <v>107</v>
-      </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>20330051920282</v>
-      </c>
-      <c r="B147" t="s">
-        <v>70</v>
-      </c>
-      <c r="C147" t="s">
-        <v>67</v>
-      </c>
-      <c r="D147" t="s">
-        <v>107</v>
-      </c>
-      <c r="E147" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>20330051920282</v>
-      </c>
-      <c r="B148" t="s">
-        <v>70</v>
-      </c>
-      <c r="C148" t="s">
-        <v>67</v>
-      </c>
-      <c r="D148" t="s">
-        <v>107</v>
-      </c>
-      <c r="E148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F148" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5529,33 +3586,33 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920266</v>
+        <v>20330051920261</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920267</v>
+        <v>20330051920266</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -5563,16 +3620,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920273</v>
+        <v>20330051920267</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -5580,33 +3637,33 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920264</v>
+        <v>20330051920273</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -5614,33 +3671,33 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920279</v>
+        <v>20330051920265</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19220030050208</v>
+        <v>20330051920268</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -5648,240 +3705,240 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920278</v>
+        <v>19220030050208</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920281</v>
+        <v>20330051920274</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920260</v>
+        <v>20330051920278</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920314</v>
+        <v>20330051920279</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920262</v>
+        <v>20330051920281</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920265</v>
+        <v>20330051920282</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920268</v>
+        <v>20330051920260</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920269</v>
+        <v>19330051920314</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920270</v>
+        <v>20330051920262</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920271</v>
+        <v>20330051920269</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920272</v>
+        <v>20330051920270</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920274</v>
+        <v>20330051920271</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920276</v>
+        <v>20330051920272</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920282</v>
+        <v>20330051920276</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5891,7 +3948,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5921,7 +3978,421 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920265</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920268</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920268</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920274</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920274</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920278</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920278</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920281</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920281</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920260</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920314</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920269</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920270</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920272</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920276</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2APV - Estadisticos 2020.xlsx
+++ b/grupos/2APV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="108">
   <si>
     <t>Materia</t>
   </si>
@@ -146,12 +146,12 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Medina Tolentino Francisco</t>
+  </si>
+  <si>
     <t>Santiago Hernández Mariana</t>
   </si>
   <si>
-    <t>Medina Tolentino Francisco</t>
-  </si>
-  <si>
     <t>Contreras Díaz Irma Ivette</t>
   </si>
   <si>
@@ -176,84 +176,138 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>BENITEZ</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE LUNA</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>GARNICA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>ANA KAREN</t>
+  </si>
+  <si>
+    <t>LEONARDO GAEL</t>
+  </si>
+  <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
+    <t>JOSE LUIS</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>JESUS HUMBERTO</t>
+  </si>
+  <si>
+    <t>EUDY</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>DANIEL ELEAZAR</t>
+  </si>
+  <si>
+    <t>MARCO JOSAFAT</t>
+  </si>
+  <si>
+    <t>AXEL YAEL</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
     <t>BALTAZARES</t>
   </si>
   <si>
-    <t>BENITEZ</t>
-  </si>
-  <si>
     <t>CASTRO</t>
   </si>
   <si>
     <t>CASTILLO</t>
   </si>
   <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>OJEDA</t>
   </si>
   <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
     <t>CONTRERAS</t>
   </si>
   <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>GARNICA</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>VILLA</t>
   </si>
   <si>
@@ -263,51 +317,18 @@
     <t>CARRASCO</t>
   </si>
   <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>JIMENEZ</t>
   </si>
   <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
     <t>IVETTE</t>
   </si>
   <si>
-    <t>ANA KAREN</t>
-  </si>
-  <si>
     <t>JOSE ANTONIO</t>
   </si>
   <si>
     <t>IAN URIEL</t>
   </si>
   <si>
-    <t>LEONARDO GAEL</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>JOSE LUIS</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>JESUS HUMBERTO</t>
-  </si>
-  <si>
     <t>MARTIN</t>
   </si>
   <si>
@@ -320,28 +341,7 @@
     <t>MIGUEL ANGEL ONAM</t>
   </si>
   <si>
-    <t>EUDY</t>
-  </si>
-  <si>
-    <t>MIRANDA</t>
-  </si>
-  <si>
-    <t>DANIEL ELEAZAR</t>
-  </si>
-  <si>
     <t>KAREN YAZMIN</t>
-  </si>
-  <si>
-    <t>MARCO JOSAFAT</t>
-  </si>
-  <si>
-    <t>AXEL YAEL</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
-  </si>
-  <si>
-    <t>ERNESTO</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M4">
         <v>8</v>
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M6">
         <v>10</v>
@@ -1050,7 +1050,7 @@
         <v>10</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>9</v>
@@ -1097,7 +1097,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>6</v>
@@ -1301,7 +1301,7 @@
         <v>-1</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -1369,7 +1369,7 @@
         <v>-1</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -1458,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M13">
         <v>8</v>
@@ -1526,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M14">
         <v>9</v>
@@ -1594,7 +1594,7 @@
         <v>10</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M15">
         <v>8</v>
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M16">
         <v>8</v>
@@ -1730,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M17">
         <v>10</v>
@@ -1777,7 +1777,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -1798,7 +1798,7 @@
         <v>-1</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M18">
         <v>6</v>
@@ -1934,7 +1934,7 @@
         <v>8</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>9</v>
@@ -2049,7 +2049,7 @@
         <v>7</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -2138,7 +2138,7 @@
         <v>6</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <v>8</v>
@@ -2206,7 +2206,7 @@
         <v>6</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <v>7</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -2303,27 +2303,30 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="G2">
-        <v>76.19</v>
+        <v>23.81</v>
+      </c>
+      <c r="H2">
+        <v>8.300000000000001</v>
       </c>
       <c r="I2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -2332,25 +2335,25 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3">
+        <v>57.14</v>
+      </c>
+      <c r="G3">
         <v>42.86</v>
       </c>
-      <c r="G3">
-        <v>23.81</v>
-      </c>
       <c r="H3">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>57.14</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2520,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2552,22 +2555,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920260</v>
+        <v>20330051920261</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2575,13 +2578,13 @@
         <v>20330051920261</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -2595,16 +2598,16 @@
         <v>20330051920261</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -2615,13 +2618,13 @@
         <v>20330051920261</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -2635,19 +2638,19 @@
         <v>20330051920261</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2655,79 +2658,79 @@
         <v>20330051920261</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920314</v>
+        <v>20330051920264</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920262</v>
+        <v>20330051920264</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2735,16 +2738,16 @@
         <v>20330051920264</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
         <v>43</v>
@@ -2752,36 +2755,36 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920264</v>
+        <v>20330051920265</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920264</v>
+        <v>20330051920266</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -2792,39 +2795,39 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920264</v>
+        <v>20330051920266</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920265</v>
+        <v>20330051920266</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
         <v>43</v>
@@ -2832,22 +2835,22 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920265</v>
+        <v>20330051920266</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2855,13 +2858,13 @@
         <v>20330051920266</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -2875,53 +2878,53 @@
         <v>20330051920266</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920266</v>
+        <v>20330051920267</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920266</v>
+        <v>20330051920267</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -2932,39 +2935,39 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920266</v>
+        <v>20330051920267</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920266</v>
+        <v>20330051920267</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
@@ -2975,19 +2978,19 @@
         <v>20330051920267</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2995,176 +2998,176 @@
         <v>20330051920267</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920267</v>
+        <v>20330051920268</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920267</v>
+        <v>19220030050208</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920267</v>
+        <v>19220030050208</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920267</v>
+        <v>20330051920273</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920268</v>
+        <v>20330051920273</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920268</v>
+        <v>20330051920273</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920269</v>
+        <v>20330051920274</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920270</v>
+        <v>20330051920274</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -3172,39 +3175,39 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920271</v>
+        <v>20330051920278</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920272</v>
+        <v>20330051920278</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -3212,341 +3215,81 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19220030050208</v>
+        <v>20330051920279</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19220030050208</v>
+        <v>20330051920279</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920273</v>
+        <v>20330051920281</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920273</v>
+        <v>20330051920282</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>20330051920273</v>
-      </c>
-      <c r="B39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>20330051920273</v>
-      </c>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>20330051920274</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>20330051920274</v>
-      </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>20330051920276</v>
-      </c>
-      <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>20330051920278</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>20330051920278</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>20330051920279</v>
-      </c>
-      <c r="B46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>20330051920279</v>
-      </c>
-      <c r="B47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>20330051920281</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>20330051920281</v>
-      </c>
-      <c r="B49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>20330051920282</v>
-      </c>
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>20330051920282</v>
-      </c>
-      <c r="B51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3589,13 +3332,13 @@
         <v>20330051920261</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -3606,13 +3349,13 @@
         <v>20330051920266</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -3623,13 +3366,13 @@
         <v>20330051920267</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -3640,13 +3383,13 @@
         <v>20330051920264</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3657,30 +3400,30 @@
         <v>20330051920273</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920265</v>
+        <v>19220030050208</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3688,16 +3431,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920268</v>
+        <v>20330051920274</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3705,16 +3448,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19220030050208</v>
+        <v>20330051920278</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -3722,16 +3465,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920274</v>
+        <v>20330051920279</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3739,36 +3482,36 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920278</v>
+        <v>20330051920265</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920279</v>
+        <v>20330051920268</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3776,16 +3519,16 @@
         <v>20330051920281</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
         <v>86</v>
       </c>
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3793,16 +3536,16 @@
         <v>20330051920282</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3810,16 +3553,16 @@
         <v>20330051920260</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3827,16 +3570,16 @@
         <v>19330051920314</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3844,16 +3587,16 @@
         <v>20330051920262</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3861,16 +3604,16 @@
         <v>20330051920269</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3878,16 +3621,16 @@
         <v>20330051920270</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3895,16 +3638,16 @@
         <v>20330051920271</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3912,16 +3655,16 @@
         <v>20330051920272</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3929,16 +3672,16 @@
         <v>20330051920276</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +3691,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3983,22 +3726,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920265</v>
+        <v>20330051920274</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -4006,22 +3749,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920265</v>
+        <v>20330051920274</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -4029,22 +3772,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920268</v>
+        <v>20330051920278</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -4052,22 +3795,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920268</v>
+        <v>20330051920278</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -4075,19 +3818,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920274</v>
+        <v>20330051920282</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -4098,42 +3841,42 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920274</v>
+        <v>20330051920282</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920278</v>
+        <v>20330051920265</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
@@ -4144,22 +3887,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920278</v>
+        <v>20330051920268</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -4170,228 +3913,21 @@
         <v>20330051920281</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
         <v>86</v>
       </c>
-      <c r="D10" t="s">
-        <v>106</v>
-      </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
       </c>
       <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920281</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920260</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920314</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920262</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920269</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920270</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920271</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920272</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920276</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/2APV - Estadisticos 2020.xlsx
+++ b/grupos/2APV - Estadisticos 2020.xlsx
@@ -3087,10 +3087,10 @@
         <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3107,7 +3107,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
         <v>47</v>
@@ -3127,10 +3127,10 @@
         <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3187,10 +3187,10 @@
         <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3227,10 +3227,10 @@
         <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3247,10 +3247,10 @@
         <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6">

--- a/grupos/2APV - Estadisticos 2020.xlsx
+++ b/grupos/2APV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="108">
   <si>
     <t>Materia</t>
   </si>
@@ -182,151 +182,151 @@
     <t>CLEMENTE</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE LUNA</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>GARNICA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>ANA KAREN</t>
+  </si>
+  <si>
+    <t>LEONARDO GAEL</t>
+  </si>
+  <si>
+    <t>JOSE LUIS</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>JESUS HUMBERTO</t>
+  </si>
+  <si>
+    <t>EUDY</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>DANIEL ELEAZAR</t>
+  </si>
+  <si>
+    <t>MARCO JOSAFAT</t>
+  </si>
+  <si>
+    <t>AXEL YAEL</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>BALTAZARES</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
     <t>CORONA</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>GARNICA</t>
+    <t>GUTIERREZ</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>ANA KAREN</t>
-  </si>
-  <si>
-    <t>LEONARDO GAEL</t>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>IVETTE</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>IAN URIEL</t>
   </si>
   <si>
     <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>JOSE LUIS</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>JESUS HUMBERTO</t>
-  </si>
-  <si>
-    <t>EUDY</t>
-  </si>
-  <si>
-    <t>MIRANDA</t>
-  </si>
-  <si>
-    <t>DANIEL ELEAZAR</t>
-  </si>
-  <si>
-    <t>MARCO JOSAFAT</t>
-  </si>
-  <si>
-    <t>AXEL YAEL</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
-  </si>
-  <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>BALTAZARES</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>IVETTE</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>IAN URIEL</t>
   </si>
   <si>
     <t>MARTIN</t>
@@ -1192,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O9">
         <v>5</v>
@@ -2303,25 +2303,25 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>42.86</v>
+        <v>47.62</v>
       </c>
       <c r="G2">
-        <v>23.81</v>
+        <v>19.05</v>
       </c>
       <c r="H2">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>57.14</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2523,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2561,10 +2561,10 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -2581,10 +2581,10 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -2601,10 +2601,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -2621,10 +2621,10 @@
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -2641,10 +2641,10 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -2661,10 +2661,10 @@
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -2681,10 +2681,10 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -2701,10 +2701,10 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -2721,10 +2721,10 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -2741,10 +2741,10 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -2755,22 +2755,22 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920265</v>
+        <v>20330051920266</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2778,19 +2778,19 @@
         <v>20330051920266</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2798,19 +2798,19 @@
         <v>20330051920266</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2818,19 +2818,19 @@
         <v>20330051920266</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2838,16 +2838,16 @@
         <v>20330051920266</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>47</v>
@@ -2858,39 +2858,39 @@
         <v>20330051920266</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920266</v>
+        <v>20330051920267</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2898,19 +2898,19 @@
         <v>20330051920267</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2918,19 +2918,19 @@
         <v>20330051920267</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2938,19 +2938,19 @@
         <v>20330051920267</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2958,19 +2958,19 @@
         <v>20330051920267</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2978,33 +2978,33 @@
         <v>20330051920267</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920267</v>
+        <v>20330051920268</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -3015,22 +3015,22 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920268</v>
+        <v>19220030050208</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3038,39 +3038,39 @@
         <v>19220030050208</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19220030050208</v>
+        <v>20330051920273</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3078,19 +3078,19 @@
         <v>20330051920273</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3098,16 +3098,16 @@
         <v>20330051920273</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>47</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920273</v>
+        <v>20330051920274</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
@@ -3124,13 +3124,13 @@
         <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3138,33 +3138,33 @@
         <v>20330051920274</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920274</v>
+        <v>20330051920278</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -3178,33 +3178,33 @@
         <v>20330051920278</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920278</v>
+        <v>20330051920279</v>
       </c>
       <c r="B34" t="s">
         <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -3218,33 +3218,33 @@
         <v>20330051920279</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920279</v>
+        <v>20330051920281</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -3255,41 +3255,21 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920281</v>
+        <v>20330051920282</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>20330051920282</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3335,10 +3315,10 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -3349,13 +3329,13 @@
         <v>20330051920266</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -3366,13 +3346,13 @@
         <v>20330051920267</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -3386,10 +3366,10 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3400,13 +3380,13 @@
         <v>20330051920273</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -3417,13 +3397,13 @@
         <v>19220030050208</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3434,13 +3414,13 @@
         <v>20330051920274</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3451,13 +3431,13 @@
         <v>20330051920278</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -3468,13 +3448,13 @@
         <v>20330051920279</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3482,13 +3462,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920265</v>
+        <v>20330051920268</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
@@ -3499,16 +3479,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920268</v>
+        <v>20330051920281</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3516,16 +3496,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920281</v>
+        <v>20330051920282</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3533,27 +3513,27 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920282</v>
+        <v>20330051920260</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920260</v>
+        <v>19330051920314</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>94</v>
@@ -3567,13 +3547,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920314</v>
+        <v>20330051920262</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>101</v>
@@ -3584,13 +3564,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920262</v>
+        <v>20330051920265</v>
       </c>
       <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
         <v>90</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
       </c>
       <c r="D17" t="s">
         <v>102</v>
@@ -3604,10 +3584,10 @@
         <v>20330051920269</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
         <v>103</v>
@@ -3621,10 +3601,10 @@
         <v>20330051920270</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -3638,10 +3618,10 @@
         <v>20330051920271</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -3655,10 +3635,10 @@
         <v>20330051920272</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -3672,10 +3652,10 @@
         <v>20330051920276</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
@@ -3691,7 +3671,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3729,13 +3709,13 @@
         <v>20330051920274</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -3752,13 +3732,13 @@
         <v>20330051920274</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -3775,13 +3755,13 @@
         <v>20330051920278</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -3798,13 +3778,13 @@
         <v>20330051920278</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -3821,13 +3801,13 @@
         <v>20330051920282</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -3844,13 +3824,13 @@
         <v>20330051920282</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -3864,13 +3844,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920265</v>
+        <v>20330051920268</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
@@ -3887,16 +3867,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920268</v>
+        <v>20330051920281</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -3905,29 +3885,6 @@
         <v>42</v>
       </c>
       <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920281</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/2APV - Estadisticos 2020.xlsx
+++ b/grupos/2APV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="108">
   <si>
     <t>Materia</t>
   </si>
@@ -146,24 +146,24 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Santiago Hernández Mariana</t>
+  </si>
+  <si>
+    <t>Contreras Díaz Irma Ivette</t>
+  </si>
+  <si>
+    <t>De Jesús Orduña Sofía del Pilar</t>
+  </si>
+  <si>
+    <t>Villanueva Morales Luis Arturo</t>
+  </si>
+  <si>
+    <t>Acevedo Rendón Ismael Arturo</t>
+  </si>
+  <si>
     <t>Medina Tolentino Francisco</t>
   </si>
   <si>
-    <t>Santiago Hernández Mariana</t>
-  </si>
-  <si>
-    <t>Contreras Díaz Irma Ivette</t>
-  </si>
-  <si>
-    <t>De Jesús Orduña Sofía del Pilar</t>
-  </si>
-  <si>
-    <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
-    <t>Acevedo Rendón Ismael Arturo</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -203,145 +203,145 @@
     <t>SANTIAGO</t>
   </si>
   <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>GARNICA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ANA KAREN</t>
+  </si>
+  <si>
+    <t>LEONARDO GAEL</t>
+  </si>
+  <si>
+    <t>JOSE LUIS</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>EUDY</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>DANIEL ELEAZAR</t>
+  </si>
+  <si>
+    <t>MARCO JOSAFAT</t>
+  </si>
+  <si>
+    <t>AXEL YAEL</t>
+  </si>
+  <si>
+    <t>BALTAZARES</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
     <t>TELLEZ</t>
   </si>
   <si>
     <t>TINOCO</t>
   </si>
   <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>GARNICA</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>REYES</t>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
   </si>
   <si>
     <t>OFICIAL</t>
   </si>
   <si>
-    <t>ANA KAREN</t>
-  </si>
-  <si>
-    <t>LEONARDO GAEL</t>
-  </si>
-  <si>
-    <t>JOSE LUIS</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
+    <t>IVETTE</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>IAN URIEL</t>
+  </si>
+  <si>
+    <t>GUADALUPE</t>
   </si>
   <si>
     <t>JESUS HUMBERTO</t>
   </si>
   <si>
-    <t>EUDY</t>
-  </si>
-  <si>
-    <t>MIRANDA</t>
-  </si>
-  <si>
-    <t>DANIEL ELEAZAR</t>
-  </si>
-  <si>
-    <t>MARCO JOSAFAT</t>
-  </si>
-  <si>
-    <t>AXEL YAEL</t>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>ELIAS ALONSO</t>
+  </si>
+  <si>
+    <t>KARLA RENATA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL ONAM</t>
+  </si>
+  <si>
+    <t>KAREN YAZMIN</t>
   </si>
   <si>
     <t>MARISOL</t>
   </si>
   <si>
     <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>BALTAZARES</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>IVETTE</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>IAN URIEL</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>ELIAS ALONSO</t>
-  </si>
-  <si>
-    <t>KARLA RENATA</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL ONAM</t>
-  </si>
-  <si>
-    <t>KAREN YAZMIN</t>
   </si>
 </sst>
 </file>
@@ -899,7 +899,7 @@
         <v>-1</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -920,7 +920,7 @@
         <v>-1</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O5">
         <v>5</v>
@@ -1103,7 +1103,7 @@
         <v>-1</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -1124,7 +1124,7 @@
         <v>-1</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O8">
         <v>5</v>
@@ -1260,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O10">
         <v>5</v>
@@ -1307,7 +1307,7 @@
         <v>-1</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1328,7 +1328,7 @@
         <v>-1</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O11">
         <v>5</v>
@@ -1375,7 +1375,7 @@
         <v>-1</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -1396,7 +1396,7 @@
         <v>-1</v>
       </c>
       <c r="N12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -1464,7 +1464,7 @@
         <v>8</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O13">
         <v>7</v>
@@ -1872,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="N19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O19">
         <v>5</v>
@@ -1987,7 +1987,7 @@
         <v>6</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <v>7</v>
@@ -2008,7 +2008,7 @@
         <v>7</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O21">
         <v>8</v>
@@ -2055,7 +2055,7 @@
         <v>6</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -2076,7 +2076,7 @@
         <v>7</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O22">
         <v>5</v>
@@ -2123,7 +2123,7 @@
         <v>7</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H23">
         <v>6</v>
@@ -2144,7 +2144,7 @@
         <v>8</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O23">
         <v>6</v>
@@ -2212,7 +2212,7 @@
         <v>7</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O24">
         <v>5</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -2303,30 +2303,30 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>47.62</v>
+        <v>57.14</v>
       </c>
       <c r="G2">
-        <v>19.05</v>
+        <v>42.86</v>
       </c>
       <c r="H2">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>52.38</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -2335,30 +2335,30 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>57.14</v>
+        <v>66.67</v>
       </c>
       <c r="G3">
-        <v>42.86</v>
+        <v>33.33</v>
       </c>
       <c r="H3">
         <v>7</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>38.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -2367,30 +2367,30 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>66.67</v>
+        <v>76.19</v>
       </c>
       <c r="G4">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -2399,30 +2399,30 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>76.19</v>
+        <v>80.95</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>23.81</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -2495,25 +2495,25 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>80.95</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>19.05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2523,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2561,16 +2561,16 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2581,16 +2581,16 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2601,16 +2601,16 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2621,16 +2621,16 @@
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2641,36 +2641,36 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920261</v>
+        <v>20330051920264</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2681,16 +2681,16 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2701,33 +2701,33 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920264</v>
+        <v>20330051920266</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
@@ -2735,22 +2735,22 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920264</v>
+        <v>20330051920266</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2761,16 +2761,16 @@
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2781,16 +2781,16 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2801,76 +2801,76 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920266</v>
+        <v>20330051920267</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920266</v>
+        <v>20330051920267</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920266</v>
+        <v>20330051920267</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2881,16 +2881,16 @@
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2901,113 +2901,113 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920267</v>
+        <v>19220030050208</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920267</v>
+        <v>20330051920273</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920267</v>
+        <v>20330051920273</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920267</v>
+        <v>20330051920273</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920268</v>
+        <v>20330051920274</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -3015,261 +3015,41 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19220030050208</v>
+        <v>20330051920278</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19220030050208</v>
+        <v>20330051920279</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
         <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>20330051920273</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>20330051920273</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>20330051920273</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>20330051920274</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>20330051920274</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>20330051920278</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>20330051920278</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>20330051920279</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>20330051920279</v>
-      </c>
-      <c r="B35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>20330051920281</v>
-      </c>
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>20330051920282</v>
-      </c>
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3315,13 +3095,13 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3332,13 +3112,13 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3349,13 +3129,13 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3366,13 +3146,13 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3383,10 +3163,10 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -3400,13 +3180,13 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3417,13 +3197,13 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3434,13 +3214,13 @@
         <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3451,75 +3231,75 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920268</v>
+        <v>20330051920260</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920281</v>
+        <v>19330051920314</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920282</v>
+        <v>20330051920262</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920260</v>
+        <v>20330051920265</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>99</v>
@@ -3530,13 +3310,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920314</v>
+        <v>20330051920268</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
@@ -3547,13 +3327,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920262</v>
+        <v>20330051920269</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
         <v>101</v>
@@ -3564,13 +3344,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920265</v>
+        <v>20330051920270</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
         <v>102</v>
@@ -3581,13 +3361,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920269</v>
+        <v>20330051920271</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
         <v>103</v>
@@ -3598,13 +3378,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920270</v>
+        <v>20330051920272</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -3615,13 +3395,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920271</v>
+        <v>20330051920276</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -3632,13 +3412,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920272</v>
+        <v>20330051920281</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -3649,13 +3429,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920276</v>
+        <v>20330051920282</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
@@ -3671,7 +3451,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3706,22 +3486,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920274</v>
+        <v>19220030050208</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -3729,45 +3509,45 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920274</v>
+        <v>19220030050208</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920278</v>
+        <v>20330051920279</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -3775,42 +3555,42 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920278</v>
+        <v>20330051920279</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920282</v>
+        <v>20330051920274</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -3821,71 +3601,48 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920282</v>
+        <v>20330051920278</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920268</v>
+        <v>20330051920282</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920281</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
